--- a/src/main/resources/testdata/Check_ThatUserCanSearchByEdited_GF_Name.xlsx
+++ b/src/main/resources/testdata/Check_ThatUserCanSearchByEdited_GF_Name.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="12690" windowHeight="6615"/>
+    <workbookView xWindow="0" yWindow="1185" windowWidth="12690" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Data#</t>
   </si>
@@ -33,18 +33,6 @@
     <t>Gene</t>
   </si>
   <si>
-    <t>check that user can search for a new added GF &gt;&gt; SYNONYMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-METLVNLIVASFLYKLGLFSSLGVSQSHYVKANGLSTTTKLSSICKTSDLTIHKKSNRTRKFSVSAGYRD
-GSRSGSSGDFIAGFLLGGAVFGAVAYIFAPQIRRSVLNEEDEYGFEKPKQPTYYDEGLEKTRETLNEKIG
-QLNSAIDNVSSRLRGREKNTSSLNVPVETDPEVEATT</t>
-  </si>
-  <si>
-    <t>Q2_synonyms</t>
-  </si>
-  <si>
     <t>symbol</t>
   </si>
   <si>
@@ -54,10 +42,25 @@
     <t xml:space="preserve">sourcespecies </t>
   </si>
   <si>
-    <t>synonyms</t>
-  </si>
-  <si>
-    <t>GF_synonyms</t>
+    <t>check that user can search by edited GF&gt;&gt; Name</t>
+  </si>
+  <si>
+    <t>1 mtihvidtst ifmrkayyen mvtipevvde irdensqfyf sllnlrveea snrnvekvir  61 vakktgdihk lsntdiklia kaldikerge dvilvtddys iqnvamslgl kvdnivqpki 121 skrfrwvkvc rgcgrsvdgd icpvcgseam ikkvrr</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>editName_GF</t>
+  </si>
+  <si>
+    <t>editedname</t>
+  </si>
+  <si>
+    <t>name_GF_updated</t>
+  </si>
+  <si>
+    <t>GF_name_edit</t>
   </si>
 </sst>
 </file>
@@ -401,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,11 +414,10 @@
     <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="78.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -441,42 +443,42 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdata/Check_ThatUserCanSearchByEdited_GF_Name.xlsx
+++ b/src/main/resources/testdata/Check_ThatUserCanSearchByEdited_GF_Name.xlsx
@@ -51,16 +51,16 @@
     <t>name</t>
   </si>
   <si>
-    <t>editName_GF</t>
-  </si>
-  <si>
     <t>editedname</t>
   </si>
   <si>
-    <t>name_GF_updated</t>
-  </si>
-  <si>
-    <t>GF_name_edit</t>
+    <t>GF_Tag_edite_selenium</t>
+  </si>
+  <si>
+    <t>name_GF_edite</t>
+  </si>
+  <si>
+    <t>name_GF_edited</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,8 +414,8 @@
     <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="78.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
     <col min="8" max="9" width="21.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -452,7 +452,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -469,16 +469,16 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdata/Check_ThatUserCanSearchByEdited_GF_Name.xlsx
+++ b/src/main/resources/testdata/Check_ThatUserCanSearchByEdited_GF_Name.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
